--- a/Cena Madery/madera2020.xlsx
+++ b/Cena Madery/madera2020.xlsx
@@ -1,33 +1,184 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Miłosz\PycharmProjects\LittleProjects\Cena Madery\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70761D78-5D97-4290-BA34-030255E4AEF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Arkusz1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="47">
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Cena</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>2019-10-23</t>
+  </si>
+  <si>
+    <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+  </si>
+  <si>
+    <t>2019-10-24</t>
+  </si>
+  <si>
+    <t>2019-10-25</t>
+  </si>
+  <si>
+    <t>2019-10-28</t>
+  </si>
+  <si>
+    <t>2019-10-29</t>
+  </si>
+  <si>
+    <t>2019-10-30</t>
+  </si>
+  <si>
+    <t>2019-10-31</t>
+  </si>
+  <si>
+    <t>2019-11-02</t>
+  </si>
+  <si>
+    <t>2019-11-03</t>
+  </si>
+  <si>
+    <t>2019-11-04</t>
+  </si>
+  <si>
+    <t>2019-11-05</t>
+  </si>
+  <si>
+    <t>2019-11-06</t>
+  </si>
+  <si>
+    <t>2019-11-07</t>
+  </si>
+  <si>
+    <t>2019-11-08</t>
+  </si>
+  <si>
+    <t>2019-11-14</t>
+  </si>
+  <si>
+    <t>2019-11-17</t>
+  </si>
+  <si>
+    <t>2019-11-18</t>
+  </si>
+  <si>
+    <t>2019-11-19</t>
+  </si>
+  <si>
+    <t>2019-11-21</t>
+  </si>
+  <si>
+    <t>2019-11-22</t>
+  </si>
+  <si>
+    <t>2019-11-23</t>
+  </si>
+  <si>
+    <t>2019-11-24</t>
+  </si>
+  <si>
+    <t>2019-11-25</t>
+  </si>
+  <si>
+    <t>2019-11-26</t>
+  </si>
+  <si>
+    <t>2019-11-27</t>
+  </si>
+  <si>
+    <t>2019-11-28</t>
+  </si>
+  <si>
+    <t>2019-11-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-12-02</t>
+  </si>
+  <si>
+    <t>2019-12-03</t>
+  </si>
+  <si>
+    <t>2019-12-04</t>
+  </si>
+  <si>
+    <t>2019-12-05</t>
+  </si>
+  <si>
+    <t>2019-12-06</t>
+  </si>
+  <si>
+    <t>2019-12-07</t>
+  </si>
+  <si>
+    <t>2019-12-13</t>
+  </si>
+  <si>
+    <t>2019-12-14</t>
+  </si>
+  <si>
+    <t>2019-12-15</t>
+  </si>
+  <si>
+    <t>2019-12-16</t>
+  </si>
+  <si>
+    <t>2019-12-17</t>
+  </si>
+  <si>
+    <t>2019-12-18</t>
+  </si>
+  <si>
+    <t>2019-12-19</t>
+  </si>
+  <si>
+    <t>2019-12-20</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -43,15 +194,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normalny" xfId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -312,177 +472,517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="13"/>
-    <col customWidth="1" max="2" min="2" width="10.7109375"/>
-    <col customWidth="1" max="3" min="3" width="158"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="158" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Data</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Cena</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2019-10-23</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
         <v>2145</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2019-10-24</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>2145</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2019-10-25</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2165</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2019-10-28</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2165</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2019-10-29</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2165</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2019-10-30</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>2165</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2019-10-31</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2165</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2019-11-02</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2165</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2019-11-03</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2165</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
-        </is>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>2165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2165</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2165</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>2165</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>2165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>2165</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>2165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>2165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>2165</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>2165</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>2165</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>2165</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>2165</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>2165</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>2065</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>2065</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>2065</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>2065</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>2065</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>2065</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>2165</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>2175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>2195</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28">
+        <v>2195</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29">
+        <v>2195</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30">
+        <v>2195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>2195</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32">
+        <v>2195</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>2195</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34">
+        <v>2195</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35">
+        <v>2195</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36">
+        <v>2195</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37">
+        <v>2195</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38">
+        <v>2195</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39">
+        <v>2195</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40">
+        <v>2195</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>2195</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>2195</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>2195</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44">
+        <v>2195</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Cena Madery/madera2020.xlsx
+++ b/Cena Madery/madera2020.xlsx
@@ -317,10 +317,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -995,11 +995,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2020-01-02</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2345</v>
+        <v>2195</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1010,11 +1010,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2020-01-03</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2345</v>
+        <v>2235</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1025,7 +1025,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2020-01-07</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1055,11 +1055,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-01-08</t>
+          <t>2020-01-09</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2345</v>
+        <v>2365</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1070,7 +1070,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2020-01-10</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1085,7 +1085,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2020-01-11</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1100,7 +1100,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-01-09</t>
+          <t>2020-01-12</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1109,6 +1109,801 @@
       <c r="C52" t="inlineStr">
         <is>
           <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2020-01-13</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2365</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2020-01-14</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2365</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2020-01-15</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2315</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2020-01-17</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2020-01-18</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2020-01-19</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2020-01-20</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2020-01-21</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2020-01-22</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2020-01-23</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2415</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2020-01-24</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2020-01-25</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2020-01-26</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2020-01-27</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2020-01-28</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2615</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200915050020200915202009222140L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2020-02-04</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2020-02-06</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2020-02-07</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2020-02-08</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2020-02-09</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2020-02-10</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2645</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2020-02-15</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2020-02-16</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2545</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2445</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2445</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2445</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2395</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2395</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2020-02-22</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2395</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2020-02-23</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2395</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2020-02-29</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2020-03-01</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2345</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2020-03-07</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2405</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2020-03-08</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2405</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2405</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2405</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2405</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
         </is>
       </c>
     </row>

--- a/Cena Madery/madera2020.xlsx
+++ b/Cena Madery/madera2020.xlsx
@@ -317,7 +317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
@@ -1902,6 +1902,1116 @@
         <v>2405</v>
       </c>
       <c r="C105" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2405</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2405</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2020-03-14</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2405</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2405</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2405</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2405</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2455</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2455</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2455</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2020-03-21</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2455</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2020-03-22</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2455</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2555</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2565</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2565</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2585</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2585</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2020-03-28</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2585</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2020-03-29</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2585</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2585</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2585</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2020-04-04</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2020-04-05</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>2485</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2020-04-11</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2020-04-12</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2020-04-18</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2020-04-19</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2020-04-25</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2020-04-26</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2020-05-01</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2020-05-02</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2020-05-06</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2020-05-07</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2020-05-08</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2020-05-09</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2020-05-10</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2020-05-11</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2020-05-12</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2020-05-13</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2020-05-14</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2020-05-15</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2020-05-16</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2020-05-17</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2020-05-18</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2020-05-19</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2020-05-20</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2020-05-21</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>2385</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2020-05-22</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>2335</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2020-05-23</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>2335</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2020-05-24</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>2335</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2020-05-25</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>2335</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2020-05-26</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>2335</v>
+      </c>
+      <c r="C179" t="inlineStr">
         <is>
           <t>https://www.tui.pl/wypoczynek/portugalia/madera/dorisol-florasol-residence-fnc11036/OfferCodeWS/WROFNC20200901044020200901202009082145L07FNC11036STX1GA02</t>
         </is>
